--- a/IK & limits.xlsx
+++ b/IK & limits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denysdubyna/Library/CloudStorage/GoogleDrive-dubinada@gmail.com/Мій диск/Robots/Spyder/Spyder2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E358BC90-2680-1347-8453-DD70EBD54DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECF306A-B31D-7F41-BDA5-54617FBEEEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IK" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>AB</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>DE2</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,10 +624,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9957,7 +9965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G2:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -9979,10 +9987,10 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="67" t="s">
+      <c r="K3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="67"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -9996,8 +10004,8 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -10060,7 +10068,7 @@
       <c r="J8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="67">
         <f>H8*H8</f>
         <v>3878.2820000000002</v>
       </c>
@@ -10620,10 +10628,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99B02CE-7B40-498C-8652-53C750553DA8}">
-  <dimension ref="K1:T25"/>
+  <dimension ref="K1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10633,21 +10641,28 @@
     <col min="15" max="15" width="1.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.6640625" style="2"/>
-    <col min="19" max="19" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:20" x14ac:dyDescent="0.2">
-      <c r="T1" s="65" t="s">
+    <row r="1" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="Y1" s="65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="T2" s="66">
+    <row r="2" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="66">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>36</v>
       </c>
@@ -10660,16 +10675,25 @@
       <c r="Q3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="11:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:25" x14ac:dyDescent="0.2">
       <c r="K4" s="59" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N4" s="2">
         <f>PI()/3</f>
@@ -10680,52 +10704,86 @@
       </c>
       <c r="P4" s="63">
         <f>$L$4-COS(N4)*$L$8</f>
-        <v>-48.750000000000014</v>
+        <v>51.249999999999986</v>
       </c>
       <c r="Q4" s="63">
         <f>P4*COS(-N4)-P5*SIN(-N4)</f>
-        <v>-97.5</v>
+        <v>39.102540378443877</v>
       </c>
       <c r="S4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="63">
-        <f>($L$8+$T$2)*COS(N4)</f>
+      <c r="T4" s="69">
+        <f>Q4*COS(N4)-Q5*SIN(N4)</f>
+        <v>51.249999999999986</v>
+      </c>
+      <c r="U4" s="63">
+        <f>T4+COS(-N4)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X4" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="63">
+        <f>($L$8+$Y$2)*COS(N4)</f>
         <v>101.75000000000003</v>
       </c>
     </row>
-    <row r="5" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O5" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="64">
         <f>$L$5-SIN(N4)*$L$8</f>
-        <v>-84.437476868982756</v>
+        <v>15.562523131017244</v>
       </c>
       <c r="Q5" s="64">
         <f>P4*SIN(-N4)+P5*COS(-N4)</f>
-        <v>0</v>
+        <v>-36.602540378443841</v>
       </c>
       <c r="S5" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="64">
-        <f>($L$8+$T$2)*SIN(N4)</f>
+      <c r="T5" s="70">
+        <f>Q4*SIN(N4)+Q5*COS(N4)</f>
+        <v>15.562523131017251</v>
+      </c>
+      <c r="U5" s="64">
+        <f>T5-SIN(-N4)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X5" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="64">
+        <f>($L$8+$Y$2)*SIN(N4)</f>
         <v>176.23616967013325</v>
       </c>
     </row>
-    <row r="7" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K8" s="61" t="s">
         <v>37</v>
       </c>
@@ -10741,46 +10799,77 @@
       </c>
       <c r="P8" s="63">
         <f>$L$4-COS(N8)*$L$8</f>
-        <v>-97.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" s="63">
         <f>P8*COS(-N8)-P9*SIN(-N8)</f>
-        <v>-97.5</v>
+        <v>2.5</v>
       </c>
       <c r="S8" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="63">
-        <f>($L$8+$T$2)*COS(N8)</f>
+      <c r="T8" s="69">
+        <f>Q8*COS(N8)-Q9*SIN(N8)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U8" s="63">
+        <f>T8+COS(-N8)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X8" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="63">
+        <f>($L$8+$Y$2)*COS(N8)</f>
         <v>203.5</v>
       </c>
     </row>
-    <row r="9" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O9" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P9" s="64">
         <f>$L$5-SIN(N8)*$L$8</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="64">
         <f>P8*SIN(-N8)+P9*COS(-N8)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="64">
-        <f>($L$8+$T$2)*SIN(N8)</f>
+      <c r="T9" s="70">
+        <f>Q8*SIN(N8)+Q9*COS(N8)</f>
+        <v>100</v>
+      </c>
+      <c r="U9" s="64">
+        <f>T9-SIN(-N8)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X9" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="64">
+        <f>($L$8+$Y$2)*SIN(N8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="11:20" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="11:25" x14ac:dyDescent="0.2">
       <c r="N12" s="2">
         <f>N16+PI()/3</f>
         <v>5.2359877559829879</v>
@@ -10790,46 +10879,77 @@
       </c>
       <c r="P12" s="63">
         <f>$L$4-COS(N12)*$L$8</f>
-        <v>-48.749999999999936</v>
+        <v>51.250000000000064</v>
       </c>
       <c r="Q12" s="63">
         <f>P12*COS(-N12)-P13*SIN(-N12)</f>
-        <v>-97.5</v>
+        <v>-134.10254037844396</v>
       </c>
       <c r="S12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="63">
-        <f>($L$8+$T$2)*COS(N12)</f>
+      <c r="T12" s="69">
+        <f>Q12*COS(N12)-Q13*SIN(N12)</f>
+        <v>51.250000000000057</v>
+      </c>
+      <c r="U12" s="63">
+        <f>T12+COS(-N12)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="63">
+        <f>($L$8+$Y$2)*COS(N12)</f>
         <v>101.74999999999986</v>
       </c>
     </row>
-    <row r="13" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P13" s="64">
         <f>$L$5-SIN(N12)*$L$8</f>
-        <v>84.437476868982813</v>
+        <v>184.4374768689828</v>
       </c>
       <c r="Q13" s="64">
         <f>P12*SIN(-N12)+P13*COS(-N12)</f>
-        <v>0</v>
+        <v>136.60254037844382</v>
       </c>
       <c r="S13" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="64">
-        <f>($L$8+$T$2)*SIN(N12)</f>
+      <c r="T13" s="70">
+        <f>Q12*SIN(N12)+Q13*COS(N12)</f>
+        <v>184.4374768689828</v>
+      </c>
+      <c r="U13" s="64">
+        <f>T13-SIN(-N12)*$L$8</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="X13" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="64">
+        <f>($L$8+$Y$2)*SIN(N12)</f>
         <v>-176.23616967013334</v>
       </c>
     </row>
-    <row r="15" spans="11:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="11:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="11:20" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="11:25" x14ac:dyDescent="0.2">
       <c r="N16" s="2">
         <f>N20+PI()/3</f>
         <v>4.1887902047863905</v>
@@ -10839,46 +10959,77 @@
       </c>
       <c r="P16" s="63">
         <f>$L$4-COS(N16)*$L$8</f>
-        <v>48.750000000000043</v>
+        <v>148.75000000000006</v>
       </c>
       <c r="Q16" s="63">
         <f>P16*COS(-N16)-P17*SIN(-N16)</f>
-        <v>-97.5</v>
+        <v>-234.1025403784439</v>
       </c>
       <c r="S16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T16" s="63">
-        <f>($L$8+$T$2)*COS(N16)</f>
+      <c r="T16" s="69">
+        <f>Q16*COS(N16)-Q17*SIN(N16)</f>
+        <v>148.75000000000006</v>
+      </c>
+      <c r="U16" s="63">
+        <f>T16+COS(-N16)*$L$8</f>
+        <v>100.00000000000001</v>
+      </c>
+      <c r="X16" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="63">
+        <f>($L$8+$Y$2)*COS(N16)</f>
         <v>-101.75000000000009</v>
       </c>
     </row>
-    <row r="17" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="14:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O17" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P17" s="64">
         <f>$L$5-SIN(N16)*$L$8</f>
-        <v>84.437476868982742</v>
+        <v>184.43747686898274</v>
       </c>
       <c r="Q17" s="64">
         <f>P16*SIN(-N16)+P17*COS(-N16)</f>
-        <v>0</v>
+        <v>36.602540378443791</v>
       </c>
       <c r="S17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="64">
-        <f>($L$8+$T$2)*SIN(N16)</f>
+      <c r="T17" s="70">
+        <f>Q16*SIN(N16)+Q17*COS(N16)</f>
+        <v>184.43747686898274</v>
+      </c>
+      <c r="U17" s="64">
+        <f>T17-SIN(-N16)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X17" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="64">
+        <f>($L$8+$Y$2)*SIN(N16)</f>
         <v>-176.23616967013322</v>
       </c>
     </row>
-    <row r="19" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="14:25" x14ac:dyDescent="0.2">
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="14:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="14:25" x14ac:dyDescent="0.2">
       <c r="N20" s="2">
         <f>N24+PI()/3</f>
         <v>3.1415926535897931</v>
@@ -10888,46 +11039,77 @@
       </c>
       <c r="P20" s="63">
         <f>$L$4-COS(N20)*$L$8</f>
-        <v>97.5</v>
+        <v>197.5</v>
       </c>
       <c r="Q20" s="63">
         <f>P20*COS(-N20)-P21*SIN(-N20)</f>
-        <v>-97.5</v>
+        <v>-197.5</v>
       </c>
       <c r="S20" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="63">
-        <f>($L$8+$T$2)*COS(N20)</f>
+      <c r="T20" s="69">
+        <f>Q20*COS(N20)-Q21*SIN(N20)</f>
+        <v>197.5</v>
+      </c>
+      <c r="U20" s="63">
+        <f>T20+COS(-N20)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X20" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="63">
+        <f>($L$8+$Y$2)*COS(N20)</f>
         <v>-203.5</v>
       </c>
     </row>
-    <row r="21" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="14:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O21" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P21" s="64">
         <f>$L$5-SIN(N20)*$L$8</f>
-        <v>-1.1945197435359045E-14</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="Q21" s="64">
         <f>P20*SIN(-N20)+P21*COS(-N20)</f>
-        <v>0</v>
+        <v>-100.00000000000001</v>
       </c>
       <c r="S21" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="64">
-        <f>($L$8+$T$2)*SIN(N20)</f>
-        <v>2.4931771057390417E-14</v>
-      </c>
-    </row>
-    <row r="23" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="70">
+        <f>Q20*SIN(N20)+Q21*COS(N20)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="U21" s="64">
+        <f>T21-SIN(-N20)*$L$8</f>
+        <v>100</v>
+      </c>
+      <c r="X21" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="64">
+        <f>($L$8+$Y$2)*SIN(N20)</f>
+        <v>2.4921562362648637E-14</v>
+      </c>
+    </row>
+    <row r="22" spans="14:25" x14ac:dyDescent="0.2">
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="14:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="14:20" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="14:25" x14ac:dyDescent="0.2">
       <c r="N24" s="2">
         <f>N4+PI()/3</f>
         <v>2.0943951023931953</v>
@@ -10937,37 +11119,59 @@
       </c>
       <c r="P24" s="63">
         <f>$L$4-COS(N24)*$L$8</f>
-        <v>48.749999999999979</v>
+        <v>148.75</v>
       </c>
       <c r="Q24" s="63">
         <f>P24*COS(-N24)-P25*SIN(-N24)</f>
-        <v>-97.5</v>
+        <v>-60.897459621556109</v>
       </c>
       <c r="S24" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="63">
-        <f>($L$8+$T$2)*COS(N24)</f>
-        <v>-101.74999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="14:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="69">
+        <f>Q24*COS(N24)-Q25*SIN(N24)</f>
+        <v>148.74999999999997</v>
+      </c>
+      <c r="U24" s="63">
+        <f>T24+COS(-N24)*$L$8</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="X24" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y24" s="63">
+        <f>($L$8+$Y$2)*COS(N24)</f>
+        <v>-101.74999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="14:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="O25" s="60" t="s">
         <v>16</v>
       </c>
       <c r="P25" s="64">
         <f>$L$5-SIN(N24)*$L$8</f>
-        <v>-84.43747686898277</v>
+        <v>15.56252313101723</v>
       </c>
       <c r="Q25" s="64">
         <f>P24*SIN(-N24)+P25*COS(-N24)</f>
-        <v>0</v>
+        <v>-136.60254037844385</v>
       </c>
       <c r="S25" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="64">
-        <f>($L$8+$T$2)*SIN(N24)</f>
+      <c r="T25" s="70">
+        <f>Q24*SIN(N24)+Q25*COS(N24)</f>
+        <v>15.562523131017215</v>
+      </c>
+      <c r="U25" s="64">
+        <f>T25-SIN(-N24)*$L$8</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="X25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y25" s="64">
+        <f>($L$8+$Y$2)*SIN(N24)</f>
         <v>176.23616967013328</v>
       </c>
     </row>
